--- a/biology/Médecine/Onyx_(radiologie_interventionnelle)/Onyx_(radiologie_interventionnelle).xlsx
+++ b/biology/Médecine/Onyx_(radiologie_interventionnelle)/Onyx_(radiologie_interventionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En radiologie interventionnelle, Onyx désigne le nom commercial d'un agent embolique liquide utilisé dans les procédures d'embolisation. Il est produit et vendu par l'entreprise Medtronic qui a acquis la société ev3 Inc., développeur initial du produit.
-L'Onyx consiste en un copolymère d'éthylène et d'alcool vinylique (EVOH) en solution dans du diméthylsulfoxyde (DMSO)[1]. En fonction des caractéristiques désirées, la concentration en EVOH peut varier de 6 % (Onyx 18) à 8 % (Onyx 34). Une poudre de tantale est ajoutée afin de rendre le produit radio-opaque[1].
-L'usage de l'Onyx a été approuvé dès 2007 par la Food and Drug Administration dans le cadre du traitement des anévrismes intracrâniens[2]. Dans les années 2020 il est employé dans de nombreuses autres indications. 
-On l'utilise notamment dans les embolisations de lésions tumorales telles que les paragangliomes[3], les angiofibromes naso-pharyngés[3] ou encore les méningiomes[3],[4]. Dans ces indications, l'Onyx présente notamment comme avantages son caractère très pénétrant en intra-tumoral et sa radio-opacité participant à un bon contrôle du geste[4]. L'Onyx est aussi un agent embolique de choix dans le traitement des malformations artérioveineuses[5].
+L'Onyx consiste en un copolymère d'éthylène et d'alcool vinylique (EVOH) en solution dans du diméthylsulfoxyde (DMSO). En fonction des caractéristiques désirées, la concentration en EVOH peut varier de 6 % (Onyx 18) à 8 % (Onyx 34). Une poudre de tantale est ajoutée afin de rendre le produit radio-opaque.
+L'usage de l'Onyx a été approuvé dès 2007 par la Food and Drug Administration dans le cadre du traitement des anévrismes intracrâniens. Dans les années 2020 il est employé dans de nombreuses autres indications. 
+On l'utilise notamment dans les embolisations de lésions tumorales telles que les paragangliomes, les angiofibromes naso-pharyngés ou encore les méningiomes,. Dans ces indications, l'Onyx présente notamment comme avantages son caractère très pénétrant en intra-tumoral et sa radio-opacité participant à un bon contrôle du geste. L'Onyx est aussi un agent embolique de choix dans le traitement des malformations artérioveineuses.
 </t>
         </is>
       </c>
